--- a/src/Input_Files/cultures/hre_cultures.xlsx
+++ b/src/Input_Files/cultures/hre_cultures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\HRE_master_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7785038-A641-4919-8C0B-A51A76B36350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB509A7-24F4-4B1B-882B-43F4597DFF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Culture</t>
   </si>
@@ -141,24 +141,38 @@
     <t>(194, 129, 27)</t>
   </si>
   <si>
-    <t>(43, 243, 38)</t>
-  </si>
-  <si>
-    <t>german_bohemian</t>
-  </si>
-  <si>
     <t>(131, 127, 37)</t>
   </si>
   <si>
     <t>walloon</t>
+  </si>
+  <si>
+    <t>silesian</t>
+  </si>
+  <si>
+    <t>(241, 214, 36)</t>
+  </si>
+  <si>
+    <t>kashubian</t>
+  </si>
+  <si>
+    <t>(60, 101, 65)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -186,13 +200,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -489,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,10 +558,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -664,19 +719,38 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
-        <v>41</v>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A23:A1048576 A1:A16 A19:A20">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="A23:A1048576 A1:A16 A19">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B1048576 B1:B16 B19:B20">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="B23:B1048576 B1:B16 B19">
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:B22">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:A22">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:A22">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>